--- a/Untitled_.xlsx
+++ b/Untitled_.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\android\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5E9BDC-AC4D-4135-846E-C37EBBEC955D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3105" yWindow="3345" windowWidth="11100" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,72 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+  <si>
+    <t>create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>video</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,14 +112,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +399,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Untitled_.xlsx
+++ b/Untitled_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5E9BDC-AC4D-4135-846E-C37EBBEC955D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA41062-19DE-494A-9936-956BA3ED2055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="3345" windowWidth="11100" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="3480" windowWidth="19290" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>create</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,30 @@
   </si>
   <si>
     <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserCreateView.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserCreate.class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserDelete.class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserUpdate.class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserDeleteView.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserUpdateView.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,15 +424,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="22.75" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -418,22 +447,40 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -444,22 +491,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>2</v>
       </c>
